--- a/data/trans_dic/P36$huevo-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36$huevo-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,22 +686,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,23</t>
+          <t>0,35; 3,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,94</t>
+          <t>0,61; 3,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 6,48</t>
+          <t>1,77; 6,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,94</t>
+          <t>0,0; 1,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,29 +711,29 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,13</t>
+          <t>0,61; 3,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,01</t>
+          <t>0,36; 2,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,09</t>
+          <t>0,76; 3,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,15</t>
+          <t>1,54; 4,12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,27 +796,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,54</t>
+          <t>0,64; 3,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,71</t>
+          <t>1,66; 4,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,09</t>
+          <t>0,0; 1,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,79</t>
+          <t>0,18; 1,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,0</t>
+          <t>0,93; 4,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,24 +826,24 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,28</t>
+          <t>0,6; 2,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 3,81</t>
+          <t>1,62; 3,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,47</t>
+          <t>0,0; 0,46</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,71</t>
+          <t>1,26; 4,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,21; 12,46</t>
+          <t>6,25; 12,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 7,21</t>
+          <t>2,75; 7,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,31</t>
+          <t>0,88; 4,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,16</t>
+          <t>0,87; 4,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 5,13</t>
+          <t>1,36; 5,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,71</t>
+          <t>1,36; 3,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 7,28</t>
+          <t>3,88; 7,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,47</t>
+          <t>2,43; 5,4</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 5,82</t>
+          <t>1,92; 6,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,96; 8,81</t>
+          <t>3,88; 8,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,88; 15,81</t>
+          <t>8,76; 15,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,5</t>
+          <t>0,0; 1,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,25</t>
+          <t>0,26; 2,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,84; 10,49</t>
+          <t>5,1; 10,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,06</t>
+          <t>1,19; 3,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,93</t>
+          <t>2,24; 4,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,72; 11,84</t>
+          <t>7,53; 11,75</t>
         </is>
       </c>
     </row>
@@ -1125,17 +1126,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,78; 8,08</t>
+          <t>1,38; 8,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,14</t>
+          <t>0,0; 3,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 7,73</t>
+          <t>2,22; 7,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1145,7 +1146,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,6</t>
+          <t>0,4; 3,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1155,24 +1156,24 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 4,21</t>
+          <t>0,86; 3,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,69</t>
+          <t>0,44; 2,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,08</t>
+          <t>2,49; 6,21</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,16; 7,33</t>
+          <t>2,18; 7,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,12; 8,95</t>
+          <t>3,09; 8,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,41</t>
+          <t>2,22; 7,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,41</t>
+          <t>0,74; 4,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,47</t>
+          <t>0,36; 3,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,73</t>
+          <t>0,33; 3,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,73</t>
+          <t>2,01; 4,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,11; 5,25</t>
+          <t>2,09; 5,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,11</t>
+          <t>1,44; 4,2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,48; 7,2</t>
+          <t>3,45; 7,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,03; 9,31</t>
+          <t>5,08; 9,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,89; 15,2</t>
+          <t>9,99; 15,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,42; 6,99</t>
+          <t>3,37; 6,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,31; 8,35</t>
+          <t>4,21; 8,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,43; 10,65</t>
+          <t>6,31; 10,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,88; 6,48</t>
+          <t>3,8; 6,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,25; 8,22</t>
+          <t>5,09; 7,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,81; 12,16</t>
+          <t>8,62; 11,99</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,26; 6,58</t>
+          <t>3,18; 6,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,2</t>
+          <t>0,63; 2,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,46; 12,88</t>
+          <t>8,55; 12,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,56; 3,95</t>
+          <t>1,58; 4,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,0</t>
+          <t>0,4; 1,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,19; 15,05</t>
+          <t>10,24; 14,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,74; 4,72</t>
+          <t>2,64; 4,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,62; 1,71</t>
+          <t>0,63; 1,65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10,01; 13,16</t>
+          <t>9,9; 12,93</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,94; 4,31</t>
+          <t>3,05; 4,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,56; 4,91</t>
+          <t>3,51; 4,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,61; 8,37</t>
+          <t>6,58; 8,27</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,64; 2,63</t>
+          <t>1,64; 2,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,85; 2,93</t>
+          <t>1,83; 2,94</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,21; 6,89</t>
+          <t>5,23; 6,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,44; 3,25</t>
+          <t>2,45; 3,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,83; 3,73</t>
+          <t>2,83; 3,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,16; 7,39</t>
+          <t>6,1; 7,35</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que desayuna, al menos, alimentos como huevos, queso, jamón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3787</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5176</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>10454</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4439</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4985</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4775</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9615</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>15439</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>951; 9407</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1785; 11358</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5196; 19073</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4947</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1125; 10297</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1760; 10623</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1886; 10605</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4407; 18473</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8962; 23976</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8729</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>14669</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2979</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>10821</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11708</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>25490</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3163; 18116</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8367; 23431</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5043</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>929; 8641</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4870; 21301</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2071</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5987; 22859</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16596; 38728</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4669</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8088</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>29058</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15239</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7037</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7046</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9211</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>15125</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>36103</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>24451</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4007; 15190</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20208; 39796</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8766; 23911</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2966; 13534</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2957; 13828</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4579; 17466</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8902; 24430</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>25800; 48604</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15905; 35367</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>12419</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22346</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>43826</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1817</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3790</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>28184</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>14236</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>26136</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>72010</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6872; 21671</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>14457; 33094</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>32422; 58683</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7065</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1018; 9648</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>19743; 41022</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>8668; 23069</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>17065; 35819</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>56998; 88985</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7891</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2387</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>8530</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2910</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8890</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7891</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5297</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>17419</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2802; 16215</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7610</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4680; 15541</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2003</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>870; 7865</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4464; 16240</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3503; 16134</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1896; 12285</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>10695; 26675</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>11022</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>14773</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>11070</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6061</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3879</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2732</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>17083</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>18652</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>13803</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5895; 19061</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>8479; 23853</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>5852; 19732</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2055; 12444</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>991; 8741</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>905; 8189</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>11020; 27184</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>11583; 29637</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>7716; 22490</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>31532</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>45672</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>80387</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>31313</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>41776</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>57339</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>62845</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>87448</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>137725</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>21167; 44799</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>33651; 59657</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>65395; 99600</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>21441; 44018</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>29224; 56543</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>43520; 72981</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>47427; 79870</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>69004; 107686</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>115801; 161194</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>34523</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>9141</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>81430</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>20464</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>8023</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>102967</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>54987</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>17164</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>184398</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>23647; 48571</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>4911; 16917</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>66570; 99478</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>12401; 32194</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>3250; 15342</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>84599; 123689</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>40249; 72295</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>10061; 26382</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>158840; 207500</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>117992</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>143221</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>251953</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>70658</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>82684</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>214308</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>188650</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>225905</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>466261</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>99597; 142048</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>119929; 169409</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>223198; 280357</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>55194; 89177</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>65029; 104497</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>185120; 243954</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>162591; 218052</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>197467; 256117</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>422647; 509481</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>